--- a/SQL/NTL System/Dummy_Data.xlsx
+++ b/SQL/NTL System/Dummy_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Intern_SQL\SQL\NTL System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC7FD2-2F6C-4A5C-9E7B-F5E72F522D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40496C54-6345-4414-B252-B778A98404C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Attribute ID</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>Silver Blue Solar Tinting(50cm)</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Silver Blue Solar Tinting(60cm)</t>
+  </si>
+  <si>
+    <t>Silver Blue Solar Tinting(70cm)</t>
+  </si>
+  <si>
+    <t>Silver Blue Solar Tinting(80cm)</t>
+  </si>
+  <si>
+    <t>Silver Blue Solar Tinting(90cm)</t>
+  </si>
+  <si>
+    <t>Silver Blue Solar Tinting(150cm)</t>
   </si>
 </sst>
 </file>
@@ -556,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +954,95 @@
         <v>38</v>
       </c>
     </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
